--- a/Tsinghua iCenter Maker Day Guest List 2015 Nov 28可巡讲名单.xlsx
+++ b/Tsinghua iCenter Maker Day Guest List 2015 Nov 28可巡讲名单.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13120" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$2:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$2:$H$5</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Occupation</t>
   </si>
   <si>
@@ -345,13 +342,38 @@
       </rPr>
       <t>德克萨斯</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">passport no. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护照号</t>
+    </r>
+  </si>
+  <si>
+    <t>051523839</t>
+  </si>
+  <si>
+    <t>phone no.</t>
+  </si>
+  <si>
+    <t>458254362</t>
+  </si>
+  <si>
+    <t>13070101695</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -387,6 +409,18 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -414,7 +448,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,8 +462,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,17 +483,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -466,6 +513,12 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -807,23 +860,24 @@
     <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="55.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="15.1640625" style="2"/>
+    <col min="5" max="5" width="11" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15" style="9" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="55.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="15.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="35" customHeight="1" thickBot="1">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="35" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,120 +890,139 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9">
+        <v>505585257</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="196">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:9" ht="98">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9">
+        <v>18513830046</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="126">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="42">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="56">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14">
+    <row r="6" spans="1:9" ht="14">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="14">
+    <row r="7" spans="1:9" ht="14">
       <c r="D7" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="14">
+    <row r="9" spans="1:9" ht="14">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="14">
+    <row r="10" spans="1:9" ht="14">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="14">
+    <row r="11" spans="1:9" ht="14">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="14">
+    <row r="12" spans="1:9" ht="14">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="14">
+    <row r="13" spans="1:9" ht="14">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="14">
+    <row r="14" spans="1:9" ht="14">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="14">
+    <row r="15" spans="1:9" ht="14">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:9" ht="14">
       <c r="D16" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G5"/>
+  <autoFilter ref="A2:H5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
